--- a/PM.xlsx
+++ b/PM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>Harinath Neeli</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -277,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -286,6 +289,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,9 +570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -900,6 +906,14 @@
         <v>38</v>
       </c>
     </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PM.xlsx
+++ b/PM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>Harinath Neeli</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -573,7 +570,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B42" sqref="A42:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -907,12 +904,8 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A42" s="8"/>
+      <c r="B42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PM.xlsx
+++ b/PM.xlsx
@@ -24,26 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
   <si>
     <t>Harinath Neeli</t>
   </si>
   <si>
-    <t>Project Team</t>
-  </si>
-  <si>
-    <t>Sruthi Pappula</t>
-  </si>
-  <si>
-    <t>Shobhit Srivastava</t>
-  </si>
-  <si>
-    <t>Michael Uchechukwu Egwim</t>
-  </si>
-  <si>
-    <t>Tech Enabler Pod</t>
-  </si>
-  <si>
     <t>Bhagirathsinh Matroja</t>
   </si>
   <si>
@@ -53,15 +38,9 @@
     <t>Yishan Zhang</t>
   </si>
   <si>
-    <t>Ramya Manne Sai</t>
-  </si>
-  <si>
     <t>Morna Nandaia</t>
   </si>
   <si>
-    <t>Delivery Pod - A</t>
-  </si>
-  <si>
     <t>Meenakshi Singh</t>
   </si>
   <si>
@@ -86,42 +65,24 @@
     <t>Christopher Bray</t>
   </si>
   <si>
-    <t>Delivery Pod - B</t>
-  </si>
-  <si>
     <t>William Staig</t>
   </si>
   <si>
-    <t>Mahsa Abdolshahnejad</t>
-  </si>
-  <si>
     <t>Saisruthi Dinesh</t>
   </si>
   <si>
-    <t>Nikita Parmar</t>
-  </si>
-  <si>
     <t>Jay Teale</t>
   </si>
   <si>
     <t>Shanthipriya Ninganola</t>
   </si>
   <si>
-    <t>Renuka More</t>
-  </si>
-  <si>
     <t>Rebecca Cara Unwin</t>
   </si>
   <si>
-    <t>Delivery Pod - C</t>
-  </si>
-  <si>
     <t>Shahir Qureshi</t>
   </si>
   <si>
-    <t>Nikhil Muneshwar</t>
-  </si>
-  <si>
     <t>Daniel Leigh</t>
   </si>
   <si>
@@ -140,15 +101,9 @@
     <t>Katie Louise Smith</t>
   </si>
   <si>
-    <t>Delivery Pod - D</t>
-  </si>
-  <si>
     <t>Banafsheh Goudarzi Nezhad</t>
   </si>
   <si>
-    <t>Kritika Adhikari</t>
-  </si>
-  <si>
     <t>Tima Taromsari</t>
   </si>
   <si>
@@ -158,23 +113,197 @@
     <t>Stefanos Korakakis</t>
   </si>
   <si>
-    <t>Pranav Naicker</t>
-  </si>
-  <si>
-    <t>Zeeshan Ali Ghoghai</t>
-  </si>
-  <si>
     <t>Team Function</t>
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>Employee Code</t>
+  </si>
+  <si>
+    <t>SZ3930</t>
+  </si>
+  <si>
+    <t>U00171</t>
+  </si>
+  <si>
+    <t>U00096</t>
+  </si>
+  <si>
+    <t>U00169</t>
+  </si>
+  <si>
+    <t>U00172</t>
+  </si>
+  <si>
+    <t>U00185</t>
+  </si>
+  <si>
+    <t>U00103</t>
+  </si>
+  <si>
+    <t>Delivery - A</t>
+  </si>
+  <si>
+    <t>U00090</t>
+  </si>
+  <si>
+    <t>U00182</t>
+  </si>
+  <si>
+    <t>U00194</t>
+  </si>
+  <si>
+    <t>U00188</t>
+  </si>
+  <si>
+    <t>U00191</t>
+  </si>
+  <si>
+    <t>U00175</t>
+  </si>
+  <si>
+    <t>U00184</t>
+  </si>
+  <si>
+    <t>U00141</t>
+  </si>
+  <si>
+    <t>Delivery - B</t>
+  </si>
+  <si>
+    <t>U00139</t>
+  </si>
+  <si>
+    <t>U00174</t>
+  </si>
+  <si>
+    <t>U00173</t>
+  </si>
+  <si>
+    <t>U00183</t>
+  </si>
+  <si>
+    <t>U00186</t>
+  </si>
+  <si>
+    <t>U00193</t>
+  </si>
+  <si>
+    <t>U00200</t>
+  </si>
+  <si>
+    <t>U00132</t>
+  </si>
+  <si>
+    <t>Delivery - C</t>
+  </si>
+  <si>
+    <t>U00104</t>
+  </si>
+  <si>
+    <t>U00177</t>
+  </si>
+  <si>
+    <t>U00176</t>
+  </si>
+  <si>
+    <t>U00189</t>
+  </si>
+  <si>
+    <t>U00190</t>
+  </si>
+  <si>
+    <t>U00192</t>
+  </si>
+  <si>
+    <t>U00195</t>
+  </si>
+  <si>
+    <t>U00147</t>
+  </si>
+  <si>
+    <t>Delivery - D</t>
+  </si>
+  <si>
+    <t>U00138</t>
+  </si>
+  <si>
+    <t>U00178</t>
+  </si>
+  <si>
+    <t>U00187</t>
+  </si>
+  <si>
+    <t>U00180</t>
+  </si>
+  <si>
+    <t>U00181</t>
+  </si>
+  <si>
+    <t>U00198</t>
+  </si>
+  <si>
+    <t>U00199</t>
+  </si>
+  <si>
+    <t>U00201</t>
+  </si>
+  <si>
+    <t>U00202</t>
+  </si>
+  <si>
+    <t>U00204</t>
+  </si>
+  <si>
+    <t>Michael  Uchechukwu Egwim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramya Manne Sai </t>
+  </si>
+  <si>
+    <t>Mahsa  Abdolshahnejad</t>
+  </si>
+  <si>
+    <t>Nikita  Parmar</t>
+  </si>
+  <si>
+    <t>Renuka Moore</t>
+  </si>
+  <si>
+    <t>Nikhil  Muneshwar</t>
+  </si>
+  <si>
+    <t>Kritika  Adhikari</t>
+  </si>
+  <si>
+    <t>Pranav  Naicker</t>
+  </si>
+  <si>
+    <t>Zeeshan  Ali Ghoghai</t>
+  </si>
+  <si>
+    <t>Kapil  Srivastava</t>
+  </si>
+  <si>
+    <t>Ana  Corbin</t>
+  </si>
+  <si>
+    <t>Gopika  MG</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tech </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,13 +315,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -204,7 +331,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -214,62 +341,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -277,16 +358,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,347 +649,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B42" sqref="A42:B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="B24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
+      <c r="B25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="B31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="B32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="B35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="B36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PM.xlsx
+++ b/PM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>Harinath Neeli</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tech </t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -331,7 +334,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -354,11 +357,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,6 +382,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,6 +1135,14 @@
         <v>76</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
